--- a/T3Dir/V2Folder/King's College Staff.xlsx
+++ b/T3Dir/V2Folder/King's College Staff.xlsx
@@ -456,10 +456,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>1360</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>37.75</v>
       </c>
       <c r="D3" t="n">
-        <v>420</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45.5</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>910</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>33.25</v>
       </c>
       <c r="D6" t="n">
-        <v>355</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.5</v>
+        <v>73.75</v>
       </c>
       <c r="D7" t="n">
-        <v>770</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="8">
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40.25</v>
+        <v>78.5</v>
       </c>
       <c r="D8" t="n">
-        <v>805</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="9">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>76.5</v>
       </c>
       <c r="D9" t="n">
-        <v>780</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="10">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31.75</v>
+        <v>63.5</v>
       </c>
       <c r="D10" t="n">
-        <v>635</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29.75</v>
+        <v>55.5</v>
       </c>
       <c r="D11" t="n">
-        <v>595</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="12">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.75</v>
+        <v>45.75</v>
       </c>
       <c r="D12" t="n">
-        <v>475</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="13">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54.5</v>
+        <v>104</v>
       </c>
       <c r="D13" t="n">
-        <v>1090</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="14">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>68.5</v>
+        <v>133.75</v>
       </c>
       <c r="D14" t="n">
-        <v>1370</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="15">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D15" t="n">
-        <v>740</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="16">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29.75</v>
+        <v>58</v>
       </c>
       <c r="D16" t="n">
-        <v>595</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34.5</v>
+        <v>66.5</v>
       </c>
       <c r="D17" t="n">
-        <v>690</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="18">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45.5</v>
+        <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>910</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="19">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.75</v>
+        <v>64.75</v>
       </c>
       <c r="D19" t="n">
-        <v>695</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="20">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43.75</v>
+        <v>83.25</v>
       </c>
       <c r="D20" t="n">
-        <v>875</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="21">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>38.25</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
-        <v>765</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="22">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16.75</v>
+        <v>32.5</v>
       </c>
       <c r="D22" t="n">
-        <v>335</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27.25</v>
+        <v>52.25</v>
       </c>
       <c r="D23" t="n">
-        <v>545</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="24">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35.5</v>
+        <v>68.5</v>
       </c>
       <c r="D24" t="n">
-        <v>710</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="25">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38.5</v>
+        <v>72.75</v>
       </c>
       <c r="D25" t="n">
-        <v>770</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>28.5</v>
+        <v>54.5</v>
       </c>
       <c r="D26" t="n">
-        <v>570</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="27">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28.25</v>
+        <v>55.5</v>
       </c>
       <c r="D27" t="n">
-        <v>565</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="28">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34.75</v>
+        <v>68.75</v>
       </c>
       <c r="D28" t="n">
-        <v>695</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="29"/>
